--- a/02_センサ評価/d05_heimannセンサ/プログラム構造.xlsx
+++ b/02_センサ評価/d05_heimannセンサ/プログラム構造.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="4815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="旧" sheetId="1" r:id="rId1"/>
     <sheet name="モジュール構成" sheetId="2" r:id="rId2"/>
+    <sheet name="データ構造" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">旧!$B$2:$E$25</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="157">
   <si>
     <t>ファイル</t>
     <phoneticPr fontId="1"/>
@@ -885,12 +886,286 @@
     <t>マシンログ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>センサ温度</t>
+    <rPh sb="3" eb="5">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データフレーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>couple1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>couple2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obj1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>num3</t>
+  </si>
+  <si>
+    <t>・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obj2</t>
+  </si>
+  <si>
+    <t>obj3</t>
+  </si>
+  <si>
+    <t>amb1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amb2</t>
+  </si>
+  <si>
+    <t>amb3</t>
+  </si>
+  <si>
+    <t>データを受け取ったタイミングでのPC時刻を設定</t>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>couple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱電対温度</t>
+    <rPh sb="0" eb="1">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前に設定されたアドレスの最下位桁</t>
+    <rPh sb="0" eb="2">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイカイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーモパイル検知温度</t>
+    <rPh sb="6" eb="8">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーモパイル雰囲気温度</t>
+    <rPh sb="6" eb="9">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【各データの説明】</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センサ数は自動で検知する</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sen1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cur</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sen2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MVn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FF_Duty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Max_Duty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heater</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返し処理ごとに、データフレームに行を追加する</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>f26["Heater2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ化するもの</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パックされたデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sensor = {"couple":couple,"num":num, "obj":obj, "amb":amb}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f22 ={"Sen1":Sen1, "Sen2":Sen2}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f22 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f26 </t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,6 +1209,41 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1081,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1122,6 +1432,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,16 +1475,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1654,7 +1976,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="112.5">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1668,7 +1990,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="56.25">
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1680,7 +2002,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="37.5">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1694,7 +2016,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1706,7 +2028,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1718,8 +2040,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="37.5" customHeight="1">
-      <c r="B8" s="30"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1730,8 +2052,8 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="30"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1740,8 +2062,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="56.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1750,7 +2072,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="37.5">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1764,8 +2086,8 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="32"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1776,8 +2098,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="37.5">
-      <c r="B13" s="32"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1786,8 +2108,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="37.5">
-      <c r="B14" s="32"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1796,8 +2118,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="131.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
@@ -1806,8 +2128,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="56.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
@@ -1816,7 +2138,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="37.5">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1830,7 +2152,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="50.25" customHeight="1">
-      <c r="B18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1842,8 +2164,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="50.25" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1854,8 +2176,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="50.25" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="4" t="s">
         <v>41</v>
       </c>
@@ -1864,8 +2186,8 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="56.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
@@ -1874,7 +2196,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1888,8 +2210,8 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1900,8 +2222,8 @@
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="20"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
@@ -1910,8 +2232,8 @@
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="20"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="6" t="s">
         <v>45</v>
       </c>
@@ -1942,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1978,7 +2300,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="14"/>
@@ -1990,7 +2312,7 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="36"/>
+      <c r="B6" s="35"/>
       <c r="D6" s="12"/>
       <c r="K6" s="9" t="s">
         <v>67</v>
@@ -2041,12 +2363,12 @@
     </row>
     <row r="13" spans="2:11">
       <c r="D13" s="14"/>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="36" t="s">
         <v>100</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="37" t="s">
         <v>93</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -2055,9 +2377,9 @@
     </row>
     <row r="14" spans="2:11">
       <c r="D14" s="11"/>
-      <c r="E14" s="34"/>
+      <c r="E14" s="36"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="35"/>
+      <c r="H14" s="37"/>
       <c r="J14" s="9" t="s">
         <v>61</v>
       </c>
@@ -2119,7 +2441,7 @@
     <row r="21" spans="2:10">
       <c r="D21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="37" t="s">
         <v>94</v>
       </c>
       <c r="I21" s="15"/>
@@ -2130,7 +2452,7 @@
     <row r="22" spans="2:10">
       <c r="D22" s="12"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="35"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="15"/>
       <c r="J22" s="9" t="s">
         <v>60</v>
@@ -2163,7 +2485,7 @@
     <row r="26" spans="2:10">
       <c r="D26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="35" t="s">
         <v>104</v>
       </c>
       <c r="I26" s="15"/>
@@ -2174,7 +2496,7 @@
     <row r="27" spans="2:10">
       <c r="D27" s="12"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="36"/>
+      <c r="H27" s="35"/>
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="2:10">
@@ -2186,7 +2508,7 @@
     <row r="29" spans="2:10">
       <c r="D29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="35" t="s">
         <v>108</v>
       </c>
       <c r="I29" s="15"/>
@@ -2197,8 +2519,8 @@
     <row r="30" spans="2:10">
       <c r="D30" s="12"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="36"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="2:10">
@@ -2215,12 +2537,12 @@
     </row>
     <row r="33" spans="4:10">
       <c r="D33" s="13"/>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="36" t="s">
         <v>101</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="37" t="s">
         <v>99</v>
       </c>
       <c r="I33" s="15"/>
@@ -2230,9 +2552,9 @@
     </row>
     <row r="34" spans="4:10">
       <c r="D34" s="11"/>
-      <c r="E34" s="34"/>
+      <c r="E34" s="36"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="35"/>
+      <c r="H34" s="37"/>
       <c r="I34" s="15"/>
       <c r="J34" s="9" t="s">
         <v>74</v>
@@ -2255,7 +2577,7 @@
     <row r="37" spans="4:10">
       <c r="D37" s="12"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="35" t="s">
         <v>106</v>
       </c>
       <c r="I37" s="15"/>
@@ -2266,7 +2588,7 @@
     <row r="38" spans="4:10">
       <c r="D38" s="12"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="36"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="15"/>
       <c r="J38" s="9" t="s">
         <v>84</v>
@@ -2292,7 +2614,7 @@
     <row r="41" spans="4:10">
       <c r="D41" s="12"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="35" t="s">
         <v>107</v>
       </c>
       <c r="I41" s="15"/>
@@ -2303,7 +2625,7 @@
     <row r="42" spans="4:10">
       <c r="D42" s="12"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="36"/>
+      <c r="H42" s="35"/>
       <c r="I42" s="15"/>
     </row>
     <row r="43" spans="4:10">
@@ -2323,14 +2645,14 @@
     <row r="45" spans="4:10">
       <c r="D45" s="12"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="35" t="s">
         <v>105</v>
       </c>
       <c r="I45" s="15"/>
     </row>
     <row r="46" spans="4:10">
       <c r="D46" s="12"/>
-      <c r="H46" s="36"/>
+      <c r="H46" s="35"/>
       <c r="I46" s="15"/>
     </row>
     <row r="47" spans="4:10">
@@ -2347,12 +2669,12 @@
     </row>
     <row r="49" spans="4:10">
       <c r="D49" s="14"/>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="36" t="s">
         <v>102</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="35" t="s">
+      <c r="H49" s="37" t="s">
         <v>95</v>
       </c>
       <c r="I49" s="15"/>
@@ -2362,8 +2684,8 @@
     </row>
     <row r="50" spans="4:10">
       <c r="D50" s="12"/>
-      <c r="E50" s="34"/>
-      <c r="H50" s="35"/>
+      <c r="E50" s="36"/>
+      <c r="H50" s="37"/>
       <c r="I50" s="15"/>
     </row>
     <row r="51" spans="4:10">
@@ -2383,12 +2705,12 @@
     </row>
     <row r="54" spans="4:10">
       <c r="D54" s="14"/>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="36" t="s">
         <v>103</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="35" t="s">
+      <c r="H54" s="37" t="s">
         <v>96</v>
       </c>
       <c r="I54" s="15"/>
@@ -2398,9 +2720,9 @@
     </row>
     <row r="55" spans="4:10">
       <c r="D55" s="12"/>
-      <c r="E55" s="34"/>
+      <c r="E55" s="36"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="35"/>
+      <c r="H55" s="37"/>
       <c r="I55" s="15"/>
       <c r="J55" s="9" t="s">
         <v>76</v>
@@ -2417,7 +2739,7 @@
     <row r="58" spans="4:10">
       <c r="D58" s="12"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="35" t="s">
+      <c r="H58" s="37" t="s">
         <v>97</v>
       </c>
       <c r="I58" s="15"/>
@@ -2428,7 +2750,7 @@
     <row r="59" spans="4:10">
       <c r="D59" s="12"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="35"/>
+      <c r="H59" s="37"/>
       <c r="I59" s="15"/>
     </row>
     <row r="60" spans="4:10">
@@ -2442,7 +2764,7 @@
     <row r="62" spans="4:10">
       <c r="D62" s="12"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="35" t="s">
+      <c r="H62" s="37" t="s">
         <v>98</v>
       </c>
       <c r="I62" s="15"/>
@@ -2452,7 +2774,7 @@
     </row>
     <row r="63" spans="4:10">
       <c r="D63" s="12"/>
-      <c r="H63" s="35"/>
+      <c r="H63" s="37"/>
       <c r="I63" s="15"/>
     </row>
     <row r="64" spans="4:10">
@@ -2466,17 +2788,22 @@
     </row>
     <row r="66" spans="3:5">
       <c r="D66" s="14"/>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="67" spans="3:5">
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="34"/>
+      <c r="E67" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H62:H63"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E33:E34"/>
@@ -2490,13 +2817,984 @@
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="H62:H63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22">
+      <c r="A2" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="43"/>
+    </row>
+    <row r="5" spans="1:22" ht="24">
+      <c r="A5" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="24">
+      <c r="A6" s="40"/>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="B8" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="B9" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="S9" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T9" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="U9" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="V9" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="24">
+      <c r="A39" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="24">
+      <c r="A40" s="40"/>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="24">
+      <c r="A41" s="40"/>
+    </row>
+    <row r="42" spans="1:10" ht="24">
+      <c r="A42" s="40"/>
+    </row>
+    <row r="43" spans="1:10" ht="24">
+      <c r="A43" s="40"/>
+    </row>
+    <row r="44" spans="1:10" ht="25.5">
+      <c r="A44" s="40"/>
+      <c r="B44" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J46" s="41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="41"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="41"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="41"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="41"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="41"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="41"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="41"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="41"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="41"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="41"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="41"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="38"/>
+    </row>
+    <row r="62" spans="2:14" ht="25.5">
+      <c r="B62" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="J64" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="K64" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L64" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="M64" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="N64" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="39"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="39"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="39"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="39"/>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="39"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="39"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="39"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="39"/>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="39"/>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="39"/>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="39"/>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="39"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="39"/>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="39"/>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="39"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/02_センサ評価/d05_heimannセンサ/プログラム構造.xlsx
+++ b/02_センサ評価/d05_heimannセンサ/プログラム構造.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="4815" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="13455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="旧" sheetId="1" r:id="rId1"/>
     <sheet name="モジュール構成" sheetId="2" r:id="rId2"/>
-    <sheet name="データ構造" sheetId="3" r:id="rId3"/>
+    <sheet name="あるべき姿" sheetId="4" r:id="rId3"/>
+    <sheet name="データ構造" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">あるべき姿!$A$1:$R$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">旧!$B$2:$E$25</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="194">
   <si>
     <t>ファイル</t>
     <phoneticPr fontId="1"/>
@@ -1117,6 +1119,172 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>パックされたデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sensor = {"couple":couple,"num":num, "obj":obj, "amb":amb}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f22 ={"Sen1":Sen1, "Sen2":Sen2}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f22 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f26 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pool.pool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 -&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sensor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>machine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>couple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thermopile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辞書</t>
+    <rPh sb="0" eb="2">
+      <t>ジショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DataFrame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sen1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obj1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amb1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amb2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cur</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sensor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sen2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heater1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のキーをつかってデータにアクセスする</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MVn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FF_Duty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Max_Duty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heater</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heater2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>f26["Heater2</t>
     </r>
@@ -1124,40 +1292,27 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>”]</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>グラフ化するもの</t>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パックされたデータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sensor = {"couple":couple,"num":num, "obj":obj, "amb":amb}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f22 ={"Sen1":Sen1, "Sen2":Sen2}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f22 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f26 </t>
+    <t>■構造</t>
+    <rPh sb="1" eb="3">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センサ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センサ2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1165,7 +1320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1212,38 +1367,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1391,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1433,6 +1569,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1475,27 +1624,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1676,6 +1813,2466 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>186418</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14968</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>175532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2227489" y="7844518"/>
+          <a:ext cx="1189265" cy="1393371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Sensor</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>665389</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>197303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>493939</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2706460" y="7300232"/>
+          <a:ext cx="1189265" cy="1393372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Machine</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>368755</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>137432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>202747</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>61231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1729469" y="10179503"/>
+          <a:ext cx="1194707" cy="1393371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SerialThread</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>86687</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480392</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2149057" y="1236516"/>
+          <a:ext cx="2456074" cy="3608810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>View</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>80203</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>210431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>589110</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>60752</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440917" y="8048145"/>
+          <a:ext cx="1189264" cy="1319893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DataPool</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332013</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166006</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>102054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3053442" y="8328932"/>
+          <a:ext cx="1194707" cy="1325336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SerialCom</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>551729</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22409</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>221716</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1232086" y="8931647"/>
+          <a:ext cx="1511752" cy="1332140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Plotter</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>477610</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>306160</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600824" y="10395857"/>
+          <a:ext cx="1189265" cy="1393372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Time_Plot</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>508348</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>336898</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>39782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5270848" y="9178338"/>
+          <a:ext cx="1189264" cy="1393373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Dist_Plot</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>401171</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>77721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>126546</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>208190</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7204742" y="9140078"/>
+          <a:ext cx="1086090" cy="620326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>センサ取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>554691</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>383240</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>220917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276120" y="8385201"/>
+          <a:ext cx="1189263" cy="1387930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Dist_Plots</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>402122</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654327</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8438A326-41B2-45D0-89C8-1B9C6093BA6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2464492" y="1814779"/>
+          <a:ext cx="1627118" cy="1349177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>入力部</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>379641</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E7E968-63B7-4B8D-840A-2EA4A5A9A44C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2420712" y="3490233"/>
+          <a:ext cx="1675039" cy="972910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>出力部</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEA88AE-8C66-4EDD-A075-CAC4E5E05988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6327321" y="1088571"/>
+          <a:ext cx="3252107" cy="1823358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Controller</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2A5E61-7BA2-4ED1-8430-C607C517662B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="4095750"/>
+          <a:ext cx="3252107" cy="1823358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21370</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>97090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>258855</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81536F76-FDD2-415C-B06B-01728A409E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6879370" y="4621465"/>
+          <a:ext cx="923285" cy="495141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>合成データ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>84124</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2388769F-E4C4-4252-88E2-567EE0D9F025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286830" y="4114960"/>
+          <a:ext cx="1094735" cy="591512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>センサ取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>74599</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7E4766-B086-4DFF-B751-A52F152F39EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8304199" y="4991260"/>
+          <a:ext cx="1096976" cy="599916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログ取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DA136F-6338-45F4-97D4-40C03E904F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="2962275"/>
+          <a:ext cx="0" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21370</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16694326-011C-46CD-A4D8-5A13B3A55805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+          <a:endCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4128408" y="3867831"/>
+          <a:ext cx="2750962" cy="1001205"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>258855</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>84124</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FB8771-F98B-4838-9CE3-D78C25C1DEC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+          <a:endCxn id="20" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7802655" y="4462543"/>
+          <a:ext cx="511069" cy="406493"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>258855</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>74599</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B70A37-59A7-4ABA-82AB-2DFA8AA74629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="1"/>
+          <a:endCxn id="20" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7802655" y="4869036"/>
+          <a:ext cx="501544" cy="422182"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654327</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>87411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0841591B-7DEA-42A4-8046-DD29231161E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4091610" y="1964754"/>
+          <a:ext cx="2299606" cy="524614"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="868058" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8370CEBD-08C3-4CF2-AF41-C4B21EBBAE1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="1743075"/>
+          <a:ext cx="868058" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コールバック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>402122</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>87411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20337E1-A564-4732-B9E7-81A723C37440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="2466975"/>
+          <a:ext cx="783122" cy="1686"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="645113" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19068B1E-26F7-4BCE-8FBE-377B83F11712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="2114550"/>
+          <a:ext cx="645113" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>イベント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="926985" cy="854465"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65FD3E75-4988-4BB5-A8AB-B424AB62A104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048625" y="2933700"/>
+          <a:ext cx="926985" cy="854465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・スタート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・ストップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・データ取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="850041" cy="600421"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771BAF24-6B20-4137-AE13-5229C821CC7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="4457700"/>
+          <a:ext cx="850041" cy="600421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データ取得</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>表示用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674674</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11470EF-CBDC-44FC-9ECF-343CA876A1B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6846874" y="1552735"/>
+          <a:ext cx="515951" cy="323690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>開く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674674</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6929E03F-CEFD-46A7-A642-F45BE645496B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6846874" y="2038510"/>
+          <a:ext cx="515951" cy="323690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26974</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427FE0EB-953F-4FBA-A938-B3BCE2C643FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7570774" y="1562260"/>
+          <a:ext cx="573101" cy="323690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26974</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD39AD3-DF6E-41E1-81D4-38FD5A3AEFB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7570774" y="2028985"/>
+          <a:ext cx="573101" cy="323690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>停止</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>74599</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990E4791-77D7-4E94-BE62-627752F7E41D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8304199" y="1562260"/>
+          <a:ext cx="573101" cy="323690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>保存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>425904</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1645066" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165536CB-0171-4635-9E89-EC96714D4976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1786618" y="5464629"/>
+          <a:ext cx="1645066" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>View</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> has Controller</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1976,7 +4573,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="112.5">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1990,7 +4587,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="56.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2002,7 +4599,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="37.5">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2016,7 +4613,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="31"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
@@ -2028,7 +4625,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="31"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2040,8 +4637,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="37.5" customHeight="1">
-      <c r="B8" s="31"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2052,8 +4649,8 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="31"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
@@ -2062,8 +4659,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="56.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
@@ -2072,7 +4669,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="37.5">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -2086,8 +4683,8 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="33"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2098,8 +4695,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="37.5">
-      <c r="B13" s="33"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
@@ -2108,8 +4705,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="37.5">
-      <c r="B14" s="33"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
@@ -2118,8 +4715,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="131.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
@@ -2128,8 +4725,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="56.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
@@ -2138,7 +4735,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="37.5">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2152,7 +4749,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="50.25" customHeight="1">
-      <c r="B18" s="34"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
@@ -2164,8 +4761,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="50.25" customHeight="1">
-      <c r="B19" s="34"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -2176,8 +4773,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="50.25" customHeight="1">
-      <c r="B20" s="34"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="4" t="s">
         <v>41</v>
       </c>
@@ -2186,8 +4783,8 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="56.25">
-      <c r="B21" s="34"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
@@ -2196,7 +4793,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -2210,8 +4807,8 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2222,8 +4819,8 @@
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="21"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
@@ -2232,8 +4829,8 @@
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="21"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="6" t="s">
         <v>45</v>
       </c>
@@ -2264,8 +4861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2300,7 +4897,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="44" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="14"/>
@@ -2312,7 +4909,7 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="35"/>
+      <c r="B6" s="44"/>
       <c r="D6" s="12"/>
       <c r="K6" s="9" t="s">
         <v>67</v>
@@ -2363,12 +4960,12 @@
     </row>
     <row r="13" spans="2:11">
       <c r="D13" s="14"/>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="43" t="s">
         <v>93</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -2377,9 +4974,9 @@
     </row>
     <row r="14" spans="2:11">
       <c r="D14" s="11"/>
-      <c r="E14" s="36"/>
+      <c r="E14" s="42"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="37"/>
+      <c r="H14" s="43"/>
       <c r="J14" s="9" t="s">
         <v>61</v>
       </c>
@@ -2441,7 +5038,7 @@
     <row r="21" spans="2:10">
       <c r="D21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="43" t="s">
         <v>94</v>
       </c>
       <c r="I21" s="15"/>
@@ -2452,7 +5049,7 @@
     <row r="22" spans="2:10">
       <c r="D22" s="12"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="37"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="15"/>
       <c r="J22" s="9" t="s">
         <v>60</v>
@@ -2485,7 +5082,7 @@
     <row r="26" spans="2:10">
       <c r="D26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="44" t="s">
         <v>104</v>
       </c>
       <c r="I26" s="15"/>
@@ -2496,7 +5093,7 @@
     <row r="27" spans="2:10">
       <c r="D27" s="12"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="35"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="2:10">
@@ -2508,7 +5105,7 @@
     <row r="29" spans="2:10">
       <c r="D29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="44" t="s">
         <v>108</v>
       </c>
       <c r="I29" s="15"/>
@@ -2520,7 +5117,7 @@
       <c r="D30" s="12"/>
       <c r="F30" s="19"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="35"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="2:10">
@@ -2537,12 +5134,12 @@
     </row>
     <row r="33" spans="4:10">
       <c r="D33" s="13"/>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="43" t="s">
         <v>99</v>
       </c>
       <c r="I33" s="15"/>
@@ -2552,9 +5149,9 @@
     </row>
     <row r="34" spans="4:10">
       <c r="D34" s="11"/>
-      <c r="E34" s="36"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="37"/>
+      <c r="H34" s="43"/>
       <c r="I34" s="15"/>
       <c r="J34" s="9" t="s">
         <v>74</v>
@@ -2577,7 +5174,7 @@
     <row r="37" spans="4:10">
       <c r="D37" s="12"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="44" t="s">
         <v>106</v>
       </c>
       <c r="I37" s="15"/>
@@ -2588,7 +5185,7 @@
     <row r="38" spans="4:10">
       <c r="D38" s="12"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="35"/>
+      <c r="H38" s="44"/>
       <c r="I38" s="15"/>
       <c r="J38" s="9" t="s">
         <v>84</v>
@@ -2614,7 +5211,7 @@
     <row r="41" spans="4:10">
       <c r="D41" s="12"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="44" t="s">
         <v>107</v>
       </c>
       <c r="I41" s="15"/>
@@ -2625,7 +5222,7 @@
     <row r="42" spans="4:10">
       <c r="D42" s="12"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="35"/>
+      <c r="H42" s="44"/>
       <c r="I42" s="15"/>
     </row>
     <row r="43" spans="4:10">
@@ -2645,14 +5242,14 @@
     <row r="45" spans="4:10">
       <c r="D45" s="12"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="35" t="s">
+      <c r="H45" s="44" t="s">
         <v>105</v>
       </c>
       <c r="I45" s="15"/>
     </row>
     <row r="46" spans="4:10">
       <c r="D46" s="12"/>
-      <c r="H46" s="35"/>
+      <c r="H46" s="44"/>
       <c r="I46" s="15"/>
     </row>
     <row r="47" spans="4:10">
@@ -2669,12 +5266,12 @@
     </row>
     <row r="49" spans="4:10">
       <c r="D49" s="14"/>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="42" t="s">
         <v>102</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="37" t="s">
+      <c r="H49" s="43" t="s">
         <v>95</v>
       </c>
       <c r="I49" s="15"/>
@@ -2684,8 +5281,8 @@
     </row>
     <row r="50" spans="4:10">
       <c r="D50" s="12"/>
-      <c r="E50" s="36"/>
-      <c r="H50" s="37"/>
+      <c r="E50" s="42"/>
+      <c r="H50" s="43"/>
       <c r="I50" s="15"/>
     </row>
     <row r="51" spans="4:10">
@@ -2705,12 +5302,12 @@
     </row>
     <row r="54" spans="4:10">
       <c r="D54" s="14"/>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="42" t="s">
         <v>103</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="37" t="s">
+      <c r="H54" s="43" t="s">
         <v>96</v>
       </c>
       <c r="I54" s="15"/>
@@ -2720,9 +5317,9 @@
     </row>
     <row r="55" spans="4:10">
       <c r="D55" s="12"/>
-      <c r="E55" s="36"/>
+      <c r="E55" s="42"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="37"/>
+      <c r="H55" s="43"/>
       <c r="I55" s="15"/>
       <c r="J55" s="9" t="s">
         <v>76</v>
@@ -2739,7 +5336,7 @@
     <row r="58" spans="4:10">
       <c r="D58" s="12"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="37" t="s">
+      <c r="H58" s="43" t="s">
         <v>97</v>
       </c>
       <c r="I58" s="15"/>
@@ -2750,7 +5347,7 @@
     <row r="59" spans="4:10">
       <c r="D59" s="12"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="37"/>
+      <c r="H59" s="43"/>
       <c r="I59" s="15"/>
     </row>
     <row r="60" spans="4:10">
@@ -2764,7 +5361,7 @@
     <row r="62" spans="4:10">
       <c r="D62" s="12"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="37" t="s">
+      <c r="H62" s="43" t="s">
         <v>98</v>
       </c>
       <c r="I62" s="15"/>
@@ -2774,7 +5371,7 @@
     </row>
     <row r="63" spans="4:10">
       <c r="D63" s="12"/>
-      <c r="H63" s="37"/>
+      <c r="H63" s="43"/>
       <c r="I63" s="15"/>
     </row>
     <row r="64" spans="4:10">
@@ -2788,22 +5385,17 @@
     </row>
     <row r="66" spans="3:5">
       <c r="D66" s="14"/>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="42" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="67" spans="3:5">
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="36"/>
+      <c r="E67" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="H62:H63"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E33:E34"/>
@@ -2817,6 +5409,11 @@
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H62:H63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2825,976 +5422,1612 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V79"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V124"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
+    <col min="2" max="10" width="10.125" style="9"/>
+    <col min="11" max="11" width="10.5" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="10.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:11" ht="19.5">
+      <c r="A2" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5">
+      <c r="A3" s="23"/>
+      <c r="B3" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.5">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="J38" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="J39" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="J40" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="G42" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="J45" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="J46" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="J47" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="19.5">
+      <c r="A50" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="19.5">
+      <c r="A51" s="23"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="B52" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="B53" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="R53" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="B54" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="L54" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="M54" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="N54" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="O54" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="P54" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="R54" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="S54" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="T54" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="U54" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="V54" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+    </row>
+    <row r="65" spans="2:22">
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+    </row>
+    <row r="66" spans="2:22">
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+    </row>
+    <row r="67" spans="2:22">
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+    </row>
+    <row r="68" spans="2:22">
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="21"/>
+    </row>
+    <row r="69" spans="2:22">
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+    </row>
+    <row r="70" spans="2:22">
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+    </row>
+    <row r="71" spans="2:22">
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+    </row>
+    <row r="72" spans="2:22">
+      <c r="B72" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22">
+      <c r="C73" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22">
+      <c r="C74" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22">
+      <c r="C75" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22">
+      <c r="C76" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22">
+      <c r="C77" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22">
+      <c r="C79" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="B81" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="19.5">
+      <c r="A84" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="19.5">
+      <c r="A85" s="23"/>
+      <c r="B85" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="43"/>
-    </row>
-    <row r="5" spans="1:22" ht="24">
-      <c r="A5" s="40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="24">
-      <c r="A6" s="40"/>
-      <c r="B6" t="s">
+    </row>
+    <row r="86" spans="1:10" ht="19.5">
+      <c r="A86" s="23"/>
+    </row>
+    <row r="87" spans="1:10" ht="19.5">
+      <c r="A87" s="23"/>
+    </row>
+    <row r="88" spans="1:10" ht="19.5">
+      <c r="A88" s="23"/>
+    </row>
+    <row r="89" spans="1:10" ht="21">
+      <c r="A89" s="23"/>
+      <c r="B89" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="B8" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="B9" s="41" t="s">
+    </row>
+    <row r="90" spans="1:10">
+      <c r="B90" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="B91" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="41" t="s">
+      <c r="C91" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G91" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" s="41" t="s">
+      <c r="H91" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="J91" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="B92" s="21"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="B93" s="21"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="B94" s="21"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="B95" s="21"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="B96" s="21"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="21"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="21"/>
+    </row>
+    <row r="98" spans="2:14">
+      <c r="B98" s="21"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="2:14">
+      <c r="B99" s="21"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="21"/>
+    </row>
+    <row r="100" spans="2:14">
+      <c r="B100" s="21"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="21"/>
+    </row>
+    <row r="101" spans="2:14">
+      <c r="B101" s="21"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="21"/>
+    </row>
+    <row r="102" spans="2:14">
+      <c r="B102" s="21"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="21"/>
+    </row>
+    <row r="103" spans="2:14">
+      <c r="B103" s="21"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="21"/>
+    </row>
+    <row r="104" spans="2:14">
+      <c r="B104" s="21"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="21"/>
+    </row>
+    <row r="106" spans="2:14">
+      <c r="B106" s="18"/>
+    </row>
+    <row r="107" spans="2:14" ht="21">
+      <c r="B107" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14">
+      <c r="B108" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14">
+      <c r="B109" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="P9" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="R9" s="41" t="s">
+      <c r="C109" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I109" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="T9" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="U9" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="V9" s="41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-    </row>
-    <row r="17" spans="2:22">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-    </row>
-    <row r="18" spans="2:22">
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-    </row>
-    <row r="19" spans="2:22">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-    </row>
-    <row r="20" spans="2:22">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-    </row>
-    <row r="21" spans="2:22">
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-    </row>
-    <row r="22" spans="2:22">
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-    </row>
-    <row r="23" spans="2:22">
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-    </row>
-    <row r="24" spans="2:22">
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-    </row>
-    <row r="25" spans="2:22">
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-    </row>
-    <row r="26" spans="2:22">
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-    </row>
-    <row r="27" spans="2:22">
-      <c r="B27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22">
-      <c r="C28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22">
-      <c r="C29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22">
-      <c r="C30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22">
-      <c r="C31" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22">
-      <c r="C32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="B36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="24">
-      <c r="A39" s="40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="24">
-      <c r="A40" s="40"/>
-      <c r="B40" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="24">
-      <c r="A41" s="40"/>
-    </row>
-    <row r="42" spans="1:10" ht="24">
-      <c r="A42" s="40"/>
-    </row>
-    <row r="43" spans="1:10" ht="24">
-      <c r="A43" s="40"/>
-    </row>
-    <row r="44" spans="1:10" ht="25.5">
-      <c r="A44" s="40"/>
-      <c r="B44" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="B45" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="B46" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="G46" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H46" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="I46" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J46" s="41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="41"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="41"/>
-    </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="41"/>
-    </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="2:14">
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="41"/>
-    </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="41"/>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="41"/>
-    </row>
-    <row r="54" spans="2:14">
-      <c r="B54" s="41"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="41"/>
-    </row>
-    <row r="55" spans="2:14">
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="41"/>
-    </row>
-    <row r="56" spans="2:14">
-      <c r="B56" s="41"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="41"/>
-    </row>
-    <row r="57" spans="2:14">
-      <c r="B57" s="41"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="41"/>
-    </row>
-    <row r="58" spans="2:14">
-      <c r="B58" s="41"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="41"/>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" s="41"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="61" spans="2:14">
-      <c r="B61" s="38"/>
-    </row>
-    <row r="62" spans="2:14" ht="25.5">
-      <c r="B62" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14">
-      <c r="B63" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="I63" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14">
-      <c r="B64" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="41" t="s">
+      <c r="J109" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="K109" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="41" t="s">
+      <c r="L109" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F64" s="42" t="s">
+      <c r="M109" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="G64" s="41" t="s">
+      <c r="N109" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I64" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="J64" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="K64" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="L64" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="M64" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="N64" s="41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="39"/>
-    </row>
-    <row r="66" spans="2:14">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="39"/>
-    </row>
-    <row r="67" spans="2:14">
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="39"/>
-    </row>
-    <row r="68" spans="2:14">
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="39"/>
-    </row>
-    <row r="69" spans="2:14">
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="39"/>
-    </row>
-    <row r="70" spans="2:14">
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="39"/>
-    </row>
-    <row r="71" spans="2:14">
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="39"/>
-    </row>
-    <row r="72" spans="2:14">
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="39"/>
-    </row>
-    <row r="73" spans="2:14">
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="39"/>
-    </row>
-    <row r="74" spans="2:14">
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="39"/>
-    </row>
-    <row r="75" spans="2:14">
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="39"/>
-    </row>
-    <row r="76" spans="2:14">
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="39"/>
-    </row>
-    <row r="77" spans="2:14">
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="39"/>
-    </row>
-    <row r="78" spans="2:14">
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="39"/>
-    </row>
-    <row r="79" spans="2:14">
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="39"/>
+    </row>
+    <row r="110" spans="2:14">
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="26"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="27"/>
+      <c r="N110" s="26"/>
+    </row>
+    <row r="111" spans="2:14">
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="26"/>
+      <c r="M111" s="27"/>
+      <c r="N111" s="26"/>
+    </row>
+    <row r="112" spans="2:14">
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="27"/>
+      <c r="N112" s="26"/>
+    </row>
+    <row r="113" spans="2:14">
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="26"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="27"/>
+      <c r="N113" s="26"/>
+    </row>
+    <row r="114" spans="2:14">
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="27"/>
+      <c r="N114" s="26"/>
+    </row>
+    <row r="115" spans="2:14">
+      <c r="B115" s="26"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="27"/>
+      <c r="N115" s="26"/>
+    </row>
+    <row r="116" spans="2:14">
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="26"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="26"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="26"/>
+      <c r="M116" s="27"/>
+      <c r="N116" s="26"/>
+    </row>
+    <row r="117" spans="2:14">
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="26"/>
+    </row>
+    <row r="118" spans="2:14">
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="26"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="26"/>
+    </row>
+    <row r="119" spans="2:14">
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="26"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="26"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="26"/>
+    </row>
+    <row r="120" spans="2:14">
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="26"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="27"/>
+      <c r="N120" s="26"/>
+    </row>
+    <row r="121" spans="2:14">
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="26"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="26"/>
+      <c r="L121" s="26"/>
+      <c r="M121" s="27"/>
+      <c r="N121" s="26"/>
+    </row>
+    <row r="122" spans="2:14">
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="26"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="26"/>
+      <c r="K122" s="26"/>
+      <c r="L122" s="26"/>
+      <c r="M122" s="27"/>
+      <c r="N122" s="26"/>
+    </row>
+    <row r="123" spans="2:14">
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="26"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="26"/>
+      <c r="M123" s="27"/>
+      <c r="N123" s="26"/>
+    </row>
+    <row r="124" spans="2:14">
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="26"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="26"/>
+      <c r="L124" s="26"/>
+      <c r="M124" s="27"/>
+      <c r="N124" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>